--- a/Data Files/storefree3_upgrade_plan.xlsx
+++ b/Data Files/storefree3_upgrade_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\Documents\Socialhead\Automation\Katalon project\CreateStoreFinal\CreateStore\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\Documents\Socialhead\Automation\Katalon project\Final githuba\AR-Project-Basic\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12571AEA-0128-4741-8CAF-2547F09B28A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8372483-FB94-47E4-B18B-8982CF8ECBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>partner_email</t>
   </si>
@@ -40,9 +40,6 @@
     <t>theme_file_local</t>
   </si>
   <si>
-    <t>huynh@firegroup.io</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>testcase_status</t>
   </si>
   <si>
-    <t>aFIq2JAxbLdIICk85ZHRFA==</t>
-  </si>
-  <si>
     <t>theme_install_type</t>
   </si>
   <si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>huynh-ar-stag-1911</t>
+  </si>
+  <si>
+    <t>huynh+1@fireapps.vn</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7E9D21-DA19-46BF-8007-BF235779D9CE}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E46"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1110,48 +1107,48 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1161,26 +1158,26 @@
       <c r="A3">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1190,26 +1187,26 @@
       <c r="A4">
         <v>211</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1219,26 +1216,26 @@
       <c r="A5">
         <v>212</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1248,26 +1245,26 @@
       <c r="A6">
         <v>213</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1277,26 +1274,26 @@
       <c r="A7">
         <v>214</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1306,26 +1303,26 @@
       <c r="A8">
         <v>215</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1335,26 +1332,26 @@
       <c r="A9">
         <v>216</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1364,26 +1361,26 @@
       <c r="A10">
         <v>217</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1393,26 +1390,26 @@
       <c r="A11">
         <v>218</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1422,26 +1419,26 @@
       <c r="A12">
         <v>219</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1451,26 +1448,26 @@
       <c r="A13">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1480,26 +1477,26 @@
       <c r="A14">
         <v>221</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -1509,26 +1506,26 @@
       <c r="A15">
         <v>222</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1538,26 +1535,26 @@
       <c r="A16">
         <v>223</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1567,26 +1564,26 @@
       <c r="A17">
         <v>224</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1596,26 +1593,26 @@
       <c r="A18">
         <v>225</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1625,26 +1622,26 @@
       <c r="A19">
         <v>226</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -1654,26 +1651,26 @@
       <c r="A20">
         <v>227</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -1681,132 +1678,132 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
